--- a/biology/Écologie/Chaîne_Centrale_de_Nouvelle-Guinée_(écorégion)/Chaîne_Centrale_de_Nouvelle-Guinée_(écorégion).xlsx
+++ b/biology/Écologie/Chaîne_Centrale_de_Nouvelle-Guinée_(écorégion)/Chaîne_Centrale_de_Nouvelle-Guinée_(écorégion).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cha%C3%AEne_Centrale_de_Nouvelle-Guin%C3%A9e_(%C3%A9cor%C3%A9gion)</t>
+          <t>Chaîne_Centrale_de_Nouvelle-Guinée_(écorégion)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Chaîne Centrale de Nouvelle-Guinée forme une écorégion d'eau douce définie par le Fonds mondial pour la nature (WWF) et The Nature Conservancy (TNC). Elle recouvre le massif montagneux qui partage latéralement l'île de Nouvelle-Guinée en Océanie et regroupe les lacs et les cours d'eau qui s'y situent.
